--- a/데이터베이스/시설물데이터.xlsx
+++ b/데이터베이스/시설물데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\documents\데이터베이스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE7DEA74-19A4-4E01-9611-CA0F65C2F82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081C5970-9EBF-486E-B4BD-4BC0537EFED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1379,8 +1379,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="92" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="92" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1391,7 +1391,7 @@
     <col min="4" max="4" width="58.5" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="126.125" customWidth="1"/>
+    <col min="9" max="9" width="161" customWidth="1"/>
     <col min="10" max="10" width="115" customWidth="1"/>
     <col min="11" max="11" width="8.75" customWidth="1"/>
   </cols>
@@ -2497,7 +2497,7 @@
         <v>37.218579257421183</v>
       </c>
       <c r="H42" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A42,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C42,"', ",,IF(B42 = "방범cctv",1,2),");")</f>
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A42,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C42,"', ",,IF(B42 = "방범cctv",1,IF(B42 = "비상벨",2,IF(B42 = "아동안전지킴이집/지구대",3,4))),");")</f>
         <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (33, 37.2185792574212, 126.976573049691, '와우리 원룸 지역 24-13 앞', 1);</v>
       </c>
       <c r="J42" t="str">
@@ -2525,8 +2525,8 @@
         <v>37.21910189919813</v>
       </c>
       <c r="H43" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A43,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C43,"', ",,IF(B43 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (34, 37.2191018991981, 126.975807885933, '범죄침입구역 경고문', 2);</v>
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A43,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C43,"', ",,IF(B43 = "방범cctv",1,IF(B43 = "비상벨",2,IF(B43 = "아동안전지킴이집/지구대",3,4))),");")</f>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (34, 37.2191018991981, 126.975807885933, '범죄침입구역 경고문', 4);</v>
       </c>
       <c r="J43" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A43,", '",Document[[#This Row],[description.2.1]],"');")</f>
@@ -2553,7 +2553,7 @@
         <v>37.219200654143492</v>
       </c>
       <c r="H44" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A44,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C44,"', ",,IF(B44 = "방범cctv",1,2),");")</f>
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A44,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C44,"', ",,IF(B44 = "방범cctv",1,IF(B44 = "비상벨",2,IF(B44 = "아동안전지킴이집/지구대",3,4))),");")</f>
         <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (35, 37.2192006541435, 126.975122262354, '와우리 원룸 지역 17-7 앞', 1);</v>
       </c>
       <c r="J44" t="str">
@@ -2581,7 +2581,7 @@
         <v>37.21724776886731</v>
       </c>
       <c r="H45" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A45,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C45,"', ",,IF(B45 = "방범cctv",1,2),");")</f>
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A45,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C45,"', ",,IF(B45 = "방범cctv",1,IF(B45 = "비상벨",2,IF(B45 = "아동안전지킴이집/지구대",3,4))),");")</f>
         <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (36, 37.2172477688673, 126.975587332685, '와우리 원룸지역 39 앞', 1);</v>
       </c>
       <c r="J45" t="str">
@@ -2609,7 +2609,7 @@
         <v>37.223848333333329</v>
       </c>
       <c r="H46" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A46,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C46,"', ",,IF(B46 = "방범cctv",1,2),");")</f>
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A46,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C46,"', ",,IF(B46 = "방범cctv",1,IF(B46 = "비상벨",2,IF(B46 = "아동안전지킴이집/지구대",3,4))),");")</f>
         <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (37, 37.2238483333333, 126.953408333333, '수영리691-1에 설치', 1);</v>
       </c>
       <c r="J46" t="str">
@@ -2640,7 +2640,7 @@
         <v>37.223848333333329</v>
       </c>
       <c r="H47" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A47,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C47,"', ",,IF(B47 = "방범cctv",1,2),");")</f>
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A47,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C47,"', ",,IF(B47 = "방범cctv",1,IF(B47 = "비상벨",2,IF(B47 = "아동안전지킴이집/지구대",3,4))),");")</f>
         <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (38, 37.2238483333333, 126.953408333333, ' 동화리438-17 전봇대에 설치', 2);</v>
       </c>
       <c r="J47" t="str">
@@ -2668,7 +2668,7 @@
         <v>37.22300833333334</v>
       </c>
       <c r="H48" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A48,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C48,"', ",,IF(B48 = "방범cctv",1,2),");")</f>
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A48,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C48,"', ",,IF(B48 = "방범cctv",1,IF(B48 = "비상벨",2,IF(B48 = "아동안전지킴이집/지구대",3,4))),");")</f>
         <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (39, 37.2230083333333, 126.954213333333, '비상벨', 2);</v>
       </c>
       <c r="J48" t="str">
@@ -2696,7 +2696,7 @@
         <v>37.21494852</v>
       </c>
       <c r="H49" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A49,", ",F49,", ",E49,", '",C49,"', ",,IF(B49 = "방범cctv",1,2),");")</f>
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A49,", ",F49,", ",E49,", '",C49,"', ",,IF(B49 = "방범cctv",1,IF(B49 = "비상벨",2,IF(B49 = "아동안전지킴이집/지구대",3,4))),");")</f>
         <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (40, 37.21494852, 126.96958292, '한신더휴, 임광3차, 휴번밀 사이 삼거리의 CCTV', 1);</v>
       </c>
       <c r="J49" t="str">
@@ -2742,8 +2742,8 @@
         <v>37.218428869999997</v>
       </c>
       <c r="H51" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A51,", ",F51,", ",E51,", '",C51,"', ",,IF(B51 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (41, 37.21842887, 126.97579596, '온누리교회', 2);</v>
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A51,", ",F51,", ",E51,", '",C51,"', ",,IF(B51 = "방범cctv",1,IF(B51 = "비상벨",2,IF(B51 = "아동안전지킴이집/지구대",3,4))),");")</f>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (41, 37.21842887, 126.97579596, '온누리교회', 3);</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" ref="J50:J88" si="0">_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A51,", '",D51,"');")</f>
@@ -2785,8 +2785,8 @@
         <v>37.216592890000001</v>
       </c>
       <c r="H53" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A53,", ",F53,", ",E53,", '",C53,"', ",,IF(B53 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (42, 37.21659289, 126.97082336, '화성서부경찰서 봉담지구대', 2);</v>
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A53,", ",F53,", ",E53,", '",C53,"', ",,IF(B53 = "방범cctv",1,IF(B53 = "비상벨",2,IF(B53 = "아동안전지킴이집/지구대",3,4))),");")</f>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (42, 37.21659289, 126.97082336, '화성서부경찰서 봉담지구대', 3);</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="0"/>
@@ -2828,7 +2828,7 @@
         <v>37.215393910000003</v>
       </c>
       <c r="H55" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A55,", ",F55,", ",E55,", '",C55,"', ",,IF(B55 = "방범cctv",1,2),");")</f>
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A55,", ",F55,", ",E55,", '",C55,"', ",,IF(B55 = "방범cctv",1,IF(B55 = "비상벨",2,IF(B55 = "아동안전지킴이집/지구대",3,4))),");")</f>
         <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (43, 37.21539391, 126.96875734, '한신더휴, 효행초 사이 cctv', 1);</v>
       </c>
       <c r="J55" t="str">
@@ -2856,7 +2856,7 @@
         <v>37.219102059999997</v>
       </c>
       <c r="H56" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A56,", ",F56,", ",E56,", '",C56,"', ",,IF(B56 = "방범cctv",1,2),");")</f>
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A56,", ",F56,", ",E56,", '",C56,"', ",,IF(B56 = "방범cctv",1,IF(B56 = "비상벨",2,IF(B56 = "아동안전지킴이집/지구대",3,4))),");")</f>
         <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (44, 37.21910206, 126.96669383, '와우중학교 앞 cctv', 1);</v>
       </c>
       <c r="J56" t="str">
@@ -2899,7 +2899,7 @@
         <v>37.218893059999999</v>
       </c>
       <c r="H58" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A58,", ",F58,", ",E58,", '",C58,"', ",,IF(B58 = "방범cctv",1,2),");")</f>
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A58,", ",F58,", ",E58,", '",C58,"', ",,IF(B58 = "방범cctv",1,IF(B58 = "비상벨",2,IF(B58 = "아동안전지킴이집/지구대",3,4))),");")</f>
         <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (45, 37.21889306, 126.9649388, '와우중 앞 cctv', 1);</v>
       </c>
       <c r="J58" t="str">
@@ -2942,7 +2942,7 @@
         <v>37.219370529999999</v>
       </c>
       <c r="H60" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A60,", ",F60,", ",E60,", '",C60,"', ",,IF(B60 = "방범cctv",1,2),");")</f>
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A60,", ",F60,", ",E60,", '",C60,"', ",,IF(B60 = "방범cctv",1,IF(B60 = "비상벨",2,IF(B60 = "아동안전지킴이집/지구대",3,4))),");")</f>
         <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (46, 37.21937053, 126.97238199, '와우초등학교 앞', 1);</v>
       </c>
       <c r="J60" t="str">
@@ -2985,7 +2985,7 @@
         <v>37.214835000000001</v>
       </c>
       <c r="H62" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A62,", ",F62,", ",E62,", '",C62,"', ",,IF(B62 = "방범cctv",1,2),");")</f>
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A62,", ",F62,", ",E62,", '",C62,"', ",,IF(B62 = "방범cctv",1,IF(B62 = "비상벨",2,IF(B62 = "아동안전지킴이집/지구대",3,4))),");")</f>
         <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (47, 37.214835, 126.962498, '동화마을 5단지, 동화새터길 사이 cctv', 1);</v>
       </c>
       <c r="J62" t="str">
@@ -3016,7 +3016,7 @@
         <v>37.216296999999997</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" ref="H63:H88" si="1">_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A63,", ",F63,", ",E63,", '",C63,"', ",,IF(B63 = "방범cctv",1,2),");")</f>
+        <f t="shared" ref="H63:H88" si="1">_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A63,", ",F63,", ",E63,", '",C63,"', ",,IF(B63 = "방범cctv",1,IF(B63 = "비상벨",2,IF(B63 = "아동안전지킴이집/지구대",3,4))),");")</f>
         <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (48, 37.216297, 126.966951, '한신아파트, 효행초 부근 CCTV (동화역말길)', 1);</v>
       </c>
       <c r="J63" t="str">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (58, 37.2166283333333, 126.959031666667, '경기 화성시 봉담읍 동화길 93-8 쌍용프라자 501호, 진스블랙벨트태권도', 2);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (58, 37.2166283333333, 126.959031666667, '경기 화성시 봉담읍 동화길 93-8 쌍용프라자 501호, 진스블랙벨트태권도', 3);</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="0"/>

--- a/데이터베이스/시설물데이터.xlsx
+++ b/데이터베이스/시설물데이터.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\documents\데이터베이스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081C5970-9EBF-486E-B4BD-4BC0537EFED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC04AF90-0D9C-46B3-9274-4AA8C0D23B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Document!$A$1:$C$45</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Document!$D$2:$F$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Document!$A$1:$C$42</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Document!$D$2:$F$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="176">
   <si>
     <t>https://file.ramblr.com/photo/1024x768/20240818/66c1615c0e234.jpg</t>
   </si>
@@ -127,9 +127,6 @@
     <t>https://file.ramblr.com/photo/1024x768/20240818/66c1618859997.jpg</t>
   </si>
   <si>
-    <t>https://file.ramblr.com/photo/1024x768/20240818/66c16168571ba.jpg</t>
-  </si>
-  <si>
     <t>https://file.ramblr.com/photo/1024x768/20240818/66c1615dd7bc1.jpg</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>https://file.ramblr.com/photo/1024x768/20240818/66c1617d538cc.jpg</t>
   </si>
   <si>
-    <t>https://file.ramblr.com/photo/1024x768/20240818/66c16159c8d7f.jpg</t>
-  </si>
-  <si>
     <t>https://file.ramblr.com/photo/1024x768/20240818/66c1617fa6463.jpg</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
     <t>https://file.ramblr.com/photo/1024x768/20240818/66c16181b04ee.jpg</t>
   </si>
   <si>
-    <t>https://file.ramblr.com/photo/1024x768/20240818/66c161978485c.jpg</t>
-  </si>
-  <si>
     <t>https://file.ramblr.com/photo/1024x768/20240818/66c161707c80f.jpg</t>
   </si>
   <si>
@@ -229,9 +220,6 @@
     <t>사진</t>
   </si>
   <si>
-    <t xml:space="preserve">위험구역 </t>
-  </si>
-  <si>
     <t>방범cctv</t>
   </si>
   <si>
@@ -254,12 +242,6 @@
   </si>
   <si>
     <t>푸르지오 apt 앞 방범cctv</t>
-  </si>
-  <si>
-    <t>와우리 심석진 황소야 앞 터널</t>
-  </si>
-  <si>
-    <t>와우리 원룸 지역 17-7 앞</t>
   </si>
   <si>
     <t>수원대 버스 정류장</t>
@@ -648,6 +630,20 @@
     <t>기타</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉담읍행정복지센터 봉담문화의집 앞에 있는 안심무인택배함</t>
+  </si>
+  <si>
+    <t>https://github.com/bongdam-safety/documents/blob/main/%EA%B8%B0%ED%83%80%EC%9E%90%EB%A3%8C/%EC%9D%8D%EC%82%AC%EB%AC%B4%EC%86%8C%20%EB%AC%B4%EC%9D%B8%ED%83%9D%EB%B0%B0%ED%95%A8%20%EC%82%AC%EC%A7%84/20241114_133923.jpg?raw=true</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bongdam-safety/documents/blob/main/%EA%B8%B0%ED%83%80%EC%9E%90%EB%A3%8C/%EC%9D%8D%EC%82%AC%EB%AC%B4%EC%86%8C%20%EB%AC%B4%EC%9D%B8%ED%83%9D%EB%B0%B0%ED%95%A8%20%EC%82%AC%EC%A7%84/20241114_133940.jpg?raw=true</t>
+  </si>
 </sst>
 </file>
 
@@ -656,7 +652,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -713,6 +709,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA31515"/>
+      <name val="D2Coding"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="D2Coding"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF098658"/>
+      <name val="D2Coding"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -757,7 +773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,6 +802,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,12 +1048,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Document" displayName="Document" ref="D2:F48" totalsRowShown="0" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Document" displayName="Document" ref="D2:F45" totalsRowShown="0" totalsRowBorderDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="description.2.1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="coordinates.1" dataDxfId="1"/>
@@ -1377,10 +1398,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="92" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="92" zoomScaleNormal="92" zoomScaleSheetLayoutView="92" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1398,33 +1419,33 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1432,10 +1453,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
@@ -1458,10 +1479,10 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -1482,10 +1503,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -1510,10 +1531,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -1536,10 +1557,10 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -1560,10 +1581,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
@@ -1588,10 +1609,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -1616,10 +1637,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
@@ -1642,10 +1663,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -1666,10 +1687,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
@@ -1694,10 +1715,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -1722,10 +1743,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
@@ -1750,10 +1771,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>1</v>
@@ -1778,10 +1799,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>24</v>
@@ -1803,1131 +1824,1121 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>126.97553137954961</v>
+        <v>126.97567792481915</v>
       </c>
       <c r="F17">
-        <v>37.215696233903529</v>
+        <v>37.21432723904018</v>
       </c>
       <c r="H17" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A17,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C17,"', ",,IF(B17 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (12, 37.2156962339035, 126.97553137955, '위험구역 ', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (13, 37.2143272390402, 126.975677924819, '화성세무서 앞', 1);</v>
       </c>
       <c r="J17" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A17,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (12, 'https://file.ramblr.com/photo/1024x768/20240818/66c16159c8d7f.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (13, 'https://file.ramblr.com/photo/1024x768/20240818/66c1615c0e234.jpg');</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E18">
-        <v>126.97567792481915</v>
+        <v>126.97395473521962</v>
       </c>
       <c r="F18">
-        <v>37.21432723904018</v>
+        <v>37.215509493845332</v>
       </c>
       <c r="H18" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A18,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C18,"', ",,IF(B18 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (13, 37.2143272390402, 126.975677924819, '화성세무서 앞', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (14, 37.2155094938453, 126.97395473522, '임광 그대가 1단지 앞', 1);</v>
       </c>
       <c r="J18" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A18,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (13, 'https://file.ramblr.com/photo/1024x768/20240818/66c1615c0e234.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (14, 'https://file.ramblr.com/photo/1024x768/20240818/66c1615dd7bc1.jpg');</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>14</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>126.97395473521962</v>
+        <v>126.97400347055759</v>
       </c>
       <c r="F19">
-        <v>37.215509493845332</v>
-      </c>
-      <c r="H19" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A19,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C19,"', ",,IF(B19 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (14, 37.2155094938453, 126.97395473522, '임광 그대가 1단지 앞', 1);</v>
+        <v>37.215446996880175</v>
       </c>
       <c r="J19" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A19,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (14, 'https://file.ramblr.com/photo/1024x768/20240818/66c1615dd7bc1.jpg');</v>
+        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A18,", '",Document[[#This Row],[description.2.1]],"');")</f>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (14, 'https://file.ramblr.com/photo/1024x768/20240818/66c1615f5188d.jpg');</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
       <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>126.97400347055759</v>
+        <v>126.97575530325199</v>
       </c>
       <c r="F20">
-        <v>37.215446996880175</v>
+        <v>37.217220526026161</v>
+      </c>
+      <c r="H20" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A20,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C20,"', ",,IF(B20 = "방범cctv",1,2),");")</f>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (15, 37.2172205260262, 126.975755303252, '와우로 119번길 아트빌 앞', 1);</v>
       </c>
       <c r="J20" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A19,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (14, 'https://file.ramblr.com/photo/1024x768/20240818/66c1615f5188d.jpg');</v>
+        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A20,", '",Document[[#This Row],[description.2.1]],"');")</f>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (15, 'https://file.ramblr.com/photo/1024x768/20240818/66c16161361cc.jpg');</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E21">
-        <v>126.97575530325199</v>
+        <v>126.97661101071859</v>
       </c>
       <c r="F21">
-        <v>37.217220526026161</v>
+        <v>37.21723292855777</v>
       </c>
       <c r="H21" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A21,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C21,"', ",,IF(B21 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (15, 37.2172205260262, 126.975755303252, '와우로 119번길 아트빌 앞', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (16, 37.2172329285578, 126.976611010719, '와우 남촌 마을회관 앞', 1);</v>
       </c>
       <c r="J21" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A21,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (15, 'https://file.ramblr.com/photo/1024x768/20240818/66c16161361cc.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (16, 'https://file.ramblr.com/photo/1024x768/20240818/66c16162acafc.jpg');</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>16</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E22">
-        <v>126.97661101071859</v>
+        <v>126.97639776113958</v>
       </c>
       <c r="F22">
-        <v>37.21723292855777</v>
-      </c>
-      <c r="H22" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A22,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C22,"', ",,IF(B22 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (16, 37.2172329285578, 126.976611010719, '와우 남촌 마을회관 앞', 1);</v>
+        <v>37.217145415228487</v>
       </c>
       <c r="J22" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A22,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (16, 'https://file.ramblr.com/photo/1024x768/20240818/66c16162acafc.jpg');</v>
+        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A21,", '",Document[[#This Row],[description.2.1]],"');")</f>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (16, 'https://file.ramblr.com/photo/1024x768/20240818/66c16165e25af.jpg');</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E23">
-        <v>126.97639776113958</v>
+        <v>126.97262089078122</v>
       </c>
       <c r="F23">
-        <v>37.217145415228487</v>
+        <v>37.218619390289703</v>
+      </c>
+      <c r="H23" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A23,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C23,"', ",,IF(B23 = "방범cctv",1,2),");")</f>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (18, 37.2186193902897, 126.972620890781, '와우리 교회 앞', 1);</v>
       </c>
       <c r="J23" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A22,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (16, 'https://file.ramblr.com/photo/1024x768/20240818/66c16165e25af.jpg');</v>
+        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A23,", '",Document[[#This Row],[description.2.1]],"');")</f>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (18, 'https://file.ramblr.com/photo/1024x768/20240818/66c1616a1d445.jpg');</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E24">
-        <v>126.97764184771056</v>
+        <v>126.97028352092676</v>
       </c>
       <c r="F24">
-        <v>37.218084712577195</v>
+        <v>37.21759242879839</v>
       </c>
       <c r="H24" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A24,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C24,"', ",,IF(B24 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (17, 37.2180847125772, 126.977641847711, '와우리 심석진 황소야 앞 터널', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (19, 37.2175924287984, 126.970283520927, '에듀시티 파라곤apt와 봉담지구대 사이 도로 ', 1);</v>
       </c>
       <c r="J24" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A24,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (17, 'https://file.ramblr.com/photo/1024x768/20240818/66c16168571ba.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (19, 'https://file.ramblr.com/photo/1024x768/20240818/66c1616d2a109.jpg');</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>126.97262089078122</v>
+        <v>126.9703707730864</v>
       </c>
       <c r="F25">
-        <v>37.218619390289703</v>
+        <v>37.219735697351645</v>
       </c>
       <c r="H25" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A25,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C25,"', ",,IF(B25 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (18, 37.2186193902897, 126.972620890781, '와우리 교회 앞', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (20, 37.2197356973516, 126.970370773086, '봉담동화지구 도시개발구역', 1);</v>
       </c>
       <c r="J25" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A25,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (18, 'https://file.ramblr.com/photo/1024x768/20240818/66c1616a1d445.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (20, 'https://file.ramblr.com/photo/1024x768/20240818/66c1616ec7f21.jpg');</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
+        <v>60</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E26">
-        <v>126.97028352092676</v>
+        <v>126.9710710320963</v>
       </c>
       <c r="F26">
-        <v>37.21759242879839</v>
+        <v>37.221806873804184</v>
       </c>
       <c r="H26" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A26,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C26,"', ",,IF(B26 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (19, 37.2175924287984, 126.970283520927, '에듀시티 파라곤apt와 봉담지구대 사이 도로 ', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (21, 37.2218068738042, 126.971071032096, '자이 라피네 apt 앞', 1);</v>
       </c>
       <c r="J26" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A26,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (19, 'https://file.ramblr.com/photo/1024x768/20240818/66c1616d2a109.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (21, 'https://file.ramblr.com/photo/1024x768/20240818/66c161707c80f.jpg');</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E27">
-        <v>126.9703707730864</v>
+        <v>126.97117560509375</v>
       </c>
       <c r="F27">
-        <v>37.219735697351645</v>
+        <v>37.220450697541381</v>
       </c>
       <c r="H27" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A27,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C27,"', ",,IF(B27 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (20, 37.2197356973516, 126.970370773086, '봉담동화지구 도시개발구역', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (22, 37.2204506975414, 126.971175605094, '와우초와 봉담라피네 사이', 1);</v>
       </c>
       <c r="J27" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A27,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (20, 'https://file.ramblr.com/photo/1024x768/20240818/66c1616ec7f21.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (22, 'https://file.ramblr.com/photo/1024x768/20240818/66c16173d61d5.jpg');</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>126.9710710320963</v>
+        <v>126.96937715210757</v>
       </c>
       <c r="F28">
-        <v>37.221806873804184</v>
+        <v>37.219659477948461</v>
       </c>
       <c r="H28" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A28,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C28,"', ",,IF(B28 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (21, 37.2218068738042, 126.971071032096, '자이 라피네 apt 앞', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (23, 37.2196594779485, 126.969377152108, '에듀시티 파라곤apt 정문', 1);</v>
       </c>
       <c r="J28" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A28,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (21, 'https://file.ramblr.com/photo/1024x768/20240818/66c161707c80f.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (23, 'https://file.ramblr.com/photo/1024x768/20240818/66c16178b667e.jpg');</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>126.97117560509375</v>
+        <v>126.96830704577491</v>
       </c>
       <c r="F29">
-        <v>37.220450697541381</v>
+        <v>37.217645082101441</v>
       </c>
       <c r="H29" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A29,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C29,"', ",,IF(B29 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (22, 37.2204506975414, 126.971175605094, '와우초와 봉담라피네 사이', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (24, 37.2176450821014, 126.968307045775, '백동물 의료센터 앞', 1);</v>
       </c>
       <c r="J29" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A29,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (22, 'https://file.ramblr.com/photo/1024x768/20240818/66c16173d61d5.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (24, 'https://file.ramblr.com/photo/1024x768/20240818/66c1617a42182.jpg');</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E30">
-        <v>126.96937715210757</v>
+        <v>126.9781049792436</v>
       </c>
       <c r="F30">
-        <v>37.219659477948461</v>
+        <v>37.214378011431592</v>
       </c>
       <c r="H30" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A30,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C30,"', ",,IF(B30 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (23, 37.2196594779485, 126.969377152108, '에듀시티 파라곤apt 정문', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (25, 37.2143780114316, 126.978104979244, '던킨도너츠 앞 사거리', 1);</v>
       </c>
       <c r="J30" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A30,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (23, 'https://file.ramblr.com/photo/1024x768/20240818/66c16178b667e.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (25, 'https://file.ramblr.com/photo/1024x768/20240818/66c1617bc3d2c.jpg');</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E31">
-        <v>126.96830704577491</v>
+        <v>126.97956595294869</v>
       </c>
       <c r="F31">
-        <v>37.217645082101441</v>
+        <v>37.21383979024408</v>
       </c>
       <c r="H31" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A31,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C31,"', ",,IF(B31 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (24, 37.2176450821014, 126.968307045775, '백동물 의료센터 앞', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (26, 37.2138397902441, 126.979565952949, '수원대 버스 정류장', 1);</v>
       </c>
       <c r="J31" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A31,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (24, 'https://file.ramblr.com/photo/1024x768/20240818/66c1617a42182.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (26, 'https://file.ramblr.com/photo/1024x768/20240818/66c1617d538cc.jpg');</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E32">
-        <v>126.9781049792436</v>
+        <v>126.98037448477713</v>
       </c>
       <c r="F32">
-        <v>37.214378011431592</v>
+        <v>37.214768590115121</v>
       </c>
       <c r="H32" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A32,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C32,"', ",,IF(B32 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (25, 37.2143780114316, 126.978104979244, '던킨도너츠 앞 사거리', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (27, 37.2147685901151, 126.980374484777, '마트킹 앞 도로', 1);</v>
       </c>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A32,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (25, 'https://file.ramblr.com/photo/1024x768/20240818/66c1617bc3d2c.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (27, 'https://file.ramblr.com/photo/1024x768/20240818/66c1617fa6463.jpg');</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>26</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E33">
-        <v>126.97956595294869</v>
+        <v>126.98026789709317</v>
       </c>
       <c r="F33">
-        <v>37.21383979024408</v>
-      </c>
-      <c r="H33" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A33,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C33,"', ",,IF(B33 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (26, 37.2138397902441, 126.979565952949, '수원대 버스 정류장', 1);</v>
+        <v>37.21483665248919</v>
       </c>
       <c r="J33" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A33,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (26, 'https://file.ramblr.com/photo/1024x768/20240818/66c1617d538cc.jpg');</v>
+        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A32,", '",Document[[#This Row],[description.2.1]],"');")</f>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (27, 'https://file.ramblr.com/photo/1024x768/20240818/66c16181b04ee.jpg');</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E34">
-        <v>126.98037448477713</v>
+        <v>126.97856578453448</v>
       </c>
       <c r="F34">
-        <v>37.214768590115121</v>
+        <v>37.216901396854418</v>
       </c>
       <c r="H34" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A34,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C34,"', ",,IF(B34 = "방범cctv",1,2),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (27, 37.2147685901151, 126.980374484777, '마트킹 앞 도로', 1);</v>
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A34,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C34,"', ",,IF(B34 = "방범cctv",1,IF(B34 = "비상벨",2,IF(B34 = "아동안전지킴이집/지구대",3,4))),");")</f>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (28, 37.2169013968544, 126.978565784534, '해성자동차공업사 앞 도로', 1);</v>
       </c>
       <c r="J34" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A34,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (27, 'https://file.ramblr.com/photo/1024x768/20240818/66c1617fa6463.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (28, 'https://file.ramblr.com/photo/1024x768/20240818/66c161839b5d4.jpg');</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1">
+        <v>29</v>
+      </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E35">
-        <v>126.98026789709317</v>
+        <v>126.97826644436657</v>
       </c>
       <c r="F35">
-        <v>37.21483665248919</v>
+        <v>37.217414007808138</v>
+      </c>
+      <c r="H35" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A35,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C35,"', ",,IF(B35 = "방범cctv",1,IF(B35 = "비상벨",2,IF(B35 = "아동안전지킴이집/지구대",3,4))),");")</f>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (29, 37.2174140078081, 126.978266444367, '제이엠미트 앞 도로', 1);</v>
       </c>
       <c r="J35" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A34,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (27, 'https://file.ramblr.com/photo/1024x768/20240818/66c16181b04ee.jpg');</v>
+        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A35,", '",Document[[#This Row],[description.2.1]],"');")</f>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (29, 'https://file.ramblr.com/photo/1024x768/20240818/66c1618525c56.jpg');</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E36">
-        <v>126.97856578453448</v>
+        <v>126.97687471154208</v>
       </c>
       <c r="F36">
-        <v>37.216901396854418</v>
+        <v>37.218319031175497</v>
       </c>
       <c r="H36" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A36,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C36,"', ",,IF(B36 = "방범cctv",1,IF(B36 = "비상벨",2,IF(B36 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (28, 37.2169013968544, 126.978565784534, '해성자동차공업사 앞 도로', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (30, 37.2183190311755, 126.976874711542, '와우리 범죄침입구역 입구', 1);</v>
       </c>
       <c r="J36" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A36,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (28, 'https://file.ramblr.com/photo/1024x768/20240818/66c161839b5d4.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (30, 'https://file.ramblr.com/photo/1024x768/20240818/66c16186c63df.jpg');</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>64</v>
+        <v>31</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E37">
-        <v>126.97826644436657</v>
+        <v>126.97653033794727</v>
       </c>
       <c r="F37">
-        <v>37.217414007808138</v>
+        <v>37.218662025848865</v>
       </c>
       <c r="H37" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A37,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C37,"', ",,IF(B37 = "방범cctv",1,IF(B37 = "비상벨",2,IF(B37 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (29, 37.2174140078081, 126.978266444367, '제이엠미트 앞 도로', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (31, 37.2186620258489, 126.976530337947, '범죄침입구역 경고문', 4);</v>
       </c>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A37,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (29, 'https://file.ramblr.com/photo/1024x768/20240818/66c1618525c56.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (31, 'https://file.ramblr.com/photo/1024x768/20240818/66c1618859997.jpg');</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>64</v>
+        <v>32</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E38">
-        <v>126.97687471154208</v>
+        <v>126.97637226792799</v>
       </c>
       <c r="F38">
-        <v>37.218319031175497</v>
+        <v>37.219512525395857</v>
       </c>
       <c r="H38" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A38,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C38,"', ",,IF(B38 = "방범cctv",1,IF(B38 = "비상벨",2,IF(B38 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (30, 37.2183190311755, 126.976874711542, '와우리 범죄침입구역 입구', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (32, 37.2195125253959, 126.976372267928, '범죄침입구역 경고문', 4);</v>
       </c>
       <c r="J38" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A38,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (30, 'https://file.ramblr.com/photo/1024x768/20240818/66c16186c63df.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (32, 'https://file.ramblr.com/photo/1024x768/20240818/66c1618aa6ec6.jpg');</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>31</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39">
-        <v>126.97653033794727</v>
+        <v>126.97629895920197</v>
       </c>
       <c r="F39">
-        <v>37.218662025848865</v>
-      </c>
-      <c r="H39" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A39,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C39,"', ",,IF(B39 = "방범cctv",1,IF(B39 = "비상벨",2,IF(B39 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (31, 37.2186620258489, 126.976530337947, '범죄침입구역 경고문', 4);</v>
+        <v>37.219584801228692</v>
       </c>
       <c r="J39" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A39,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (31, 'https://file.ramblr.com/photo/1024x768/20240818/66c1618859997.jpg');</v>
+        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A38,", '",Document[[#This Row],[description.2.1]],"');")</f>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (32, 'https://file.ramblr.com/photo/1024x768/20240818/66c1618d0580e.jpg');</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>32</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>176</v>
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E40">
-        <v>126.97637226792799</v>
+        <v>126.97657304969118</v>
       </c>
       <c r="F40">
-        <v>37.219512525395857</v>
+        <v>37.218579257421183</v>
       </c>
       <c r="H40" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A40,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C40,"', ",,IF(B40 = "방범cctv",1,IF(B40 = "비상벨",2,IF(B40 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (32, 37.2195125253959, 126.976372267928, '범죄침입구역 경고문', 4);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (33, 37.2185792574212, 126.976573049691, '와우리 원룸 지역 24-13 앞', 1);</v>
       </c>
       <c r="J40" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A40,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (32, 'https://file.ramblr.com/photo/1024x768/20240818/66c1618aa6ec6.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (33, 'https://file.ramblr.com/photo/1024x768/20240818/66c16191aa9b4.jpg');</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>34</v>
+      </c>
       <c r="B41" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>126.97629895920197</v>
+        <v>126.97580788593292</v>
       </c>
       <c r="F41">
-        <v>37.219584801228692</v>
+        <v>37.21910189919813</v>
+      </c>
+      <c r="H41" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A41,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C41,"', ",,IF(B41 = "방범cctv",1,IF(B41 = "비상벨",2,IF(B41 = "아동안전지킴이집/지구대",3,4))),");")</f>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (34, 37.2191018991981, 126.975807885933, '범죄침입구역 경고문', 4);</v>
       </c>
       <c r="J41" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A40,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (32, 'https://file.ramblr.com/photo/1024x768/20240818/66c1618d0580e.jpg');</v>
+        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A41,", '",Document[[#This Row],[description.2.1]],"');")</f>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (34, 'https://file.ramblr.com/photo/1024x768/20240818/66c16193dc8a1.jpg');</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E42">
-        <v>126.97657304969118</v>
+        <v>126.97558733268457</v>
       </c>
       <c r="F42">
-        <v>37.218579257421183</v>
+        <v>37.21724776886731</v>
       </c>
       <c r="H42" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A42,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C42,"', ",,IF(B42 = "방범cctv",1,IF(B42 = "비상벨",2,IF(B42 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (33, 37.2185792574212, 126.976573049691, '와우리 원룸 지역 24-13 앞', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (36, 37.2172477688673, 126.975587332685, '와우리 원룸지역 39 앞', 1);</v>
       </c>
       <c r="J42" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A42,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (33, 'https://file.ramblr.com/photo/1024x768/20240818/66c16191aa9b4.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (36, 'https://file.ramblr.com/photo/1024x768/20240818/66c1619c3e07b.jpg');</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>34</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C43" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
       </c>
       <c r="E43">
-        <v>126.97580788593292</v>
+        <v>126.95340833333333</v>
       </c>
       <c r="F43">
-        <v>37.21910189919813</v>
+        <v>37.223848333333329</v>
       </c>
       <c r="H43" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A43,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C43,"', ",,IF(B43 = "방범cctv",1,IF(B43 = "비상벨",2,IF(B43 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (34, 37.2191018991981, 126.975807885933, '범죄침입구역 경고문', 4);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (37, 37.2238483333333, 126.953408333333, '수영리691-1에 설치', 1);</v>
       </c>
       <c r="J43" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A43,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (34, 'https://file.ramblr.com/photo/1024x768/20240818/66c16193dc8a1.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (37, 'https://file.ramblr.com/photo/1024x768/20240813/66bb50948dac6.jpg');</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>35</v>
+      <c r="A44" s="7">
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>141</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" t="s">
+        <v>83</v>
       </c>
       <c r="E44">
-        <v>126.97512226235365</v>
+        <v>126.95340833333333</v>
       </c>
       <c r="F44">
-        <v>37.219200654143492</v>
+        <v>37.223848333333329</v>
       </c>
       <c r="H44" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A44,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C44,"', ",,IF(B44 = "방범cctv",1,IF(B44 = "비상벨",2,IF(B44 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (35, 37.2192006541435, 126.975122262354, '와우리 원룸 지역 17-7 앞', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (38, 37.2238483333333, 126.953408333333, ' 동화리438-17 전봇대에 설치', 2);</v>
       </c>
       <c r="J44" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A44,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (35, 'https://file.ramblr.com/photo/1024x768/20240818/66c161978485c.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (38, 'https://file.ramblr.com/photo/1024x768/20240813/66bb509609913.jpg');</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>36</v>
+      <c r="A45" s="7">
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>34</v>
+        <v>141</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
       </c>
       <c r="E45">
-        <v>126.97558733268457</v>
+        <v>126.95421333333334</v>
       </c>
       <c r="F45">
-        <v>37.21724776886731</v>
+        <v>37.22300833333334</v>
       </c>
       <c r="H45" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A45,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C45,"', ",,IF(B45 = "방범cctv",1,IF(B45 = "비상벨",2,IF(B45 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (36, 37.2172477688673, 126.975587332685, '와우리 원룸지역 39 앞', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (39, 37.2230083333333, 126.954213333333, '비상벨', 2);</v>
       </c>
       <c r="J45" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A45,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (36, 'https://file.ramblr.com/photo/1024x768/20240818/66c1619c3e07b.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (39, 'https://file.ramblr.com/photo/1024x768/20240813/66bb50b426046.jpg');</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>37</v>
+      <c r="A46" s="7">
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="4" t="s">
         <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
       </c>
       <c r="D46" t="s">
         <v>88</v>
       </c>
       <c r="E46">
-        <v>126.95340833333333</v>
+        <v>126.96958291999999</v>
       </c>
       <c r="F46">
-        <v>37.223848333333329</v>
+        <v>37.21494852</v>
       </c>
       <c r="H46" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A46,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C46,"', ",,IF(B46 = "방범cctv",1,IF(B46 = "비상벨",2,IF(B46 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (37, 37.2238483333333, 126.953408333333, '수영리691-1에 설치', 1);</v>
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A46,", ",F46,", ",E46,", '",C46,"', ",,IF(B46 = "방범cctv",1,IF(B46 = "비상벨",2,IF(B46 = "아동안전지킴이집/지구대",3,4))),");")</f>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (40, 37.21494852, 126.96958292, '한신더휴, 임광3차, 휴번밀 사이 삼거리의 CCTV', 1);</v>
       </c>
       <c r="J46" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A46,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (37, 'https://file.ramblr.com/photo/1024x768/20240813/66bb50948dac6.jpg');</v>
+        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A46,", '",D46,"');")</f>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (40, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e6f656b0f.jpg');</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
-        <v>38</v>
-      </c>
-      <c r="B47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D47" t="s">
         <v>89</v>
       </c>
       <c r="E47">
-        <v>126.95340833333333</v>
+        <v>126.96958291999999</v>
       </c>
       <c r="F47">
-        <v>37.223848333333329</v>
-      </c>
-      <c r="H47" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A47,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C47,"', ",,IF(B47 = "방범cctv",1,IF(B47 = "비상벨",2,IF(B47 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (38, 37.2238483333333, 126.953408333333, ' 동화리438-17 전봇대에 설치', 2);</v>
+        <v>37.21494852</v>
       </c>
       <c r="J47" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A47,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (38, 'https://file.ramblr.com/photo/1024x768/20240813/66bb509609913.jpg');</v>
+        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A46,", '",D47,"');")</f>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (40, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e6f8cd3cd.jpg');</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
         <v>91</v>
       </c>
       <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48">
+        <v>126.97579596</v>
+      </c>
+      <c r="F48">
+        <v>37.218428869999997</v>
+      </c>
+      <c r="H48" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A48,", ",F48,", ",E48,", '",C48,"', ",,IF(B48 = "방범cctv",1,IF(B48 = "비상벨",2,IF(B48 = "아동안전지킴이집/지구대",3,4))),");")</f>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (41, 37.21842887, 126.97579596, '온누리교회', 3);</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" ref="J48:J87" si="0">_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A48,", '",D48,"');")</f>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (41, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e6fa67119.jpg');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49">
+        <v>126.97579596</v>
+      </c>
+      <c r="F49">
+        <v>37.218428869999997</v>
+      </c>
+      <c r="J49" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A48,", '",D49,"');")</f>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (41, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e6fbdd736.jpg');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
         <v>90</v>
       </c>
-      <c r="E48">
-        <v>126.95421333333334</v>
-      </c>
-      <c r="F48">
-        <v>37.22300833333334</v>
-      </c>
-      <c r="H48" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A48,", ",Document[[#This Row],[coordinates.2]],", ",Document[[#This Row],[coordinates.1]],", '",C48,"', ",,IF(B48 = "방범cctv",1,IF(B48 = "비상벨",2,IF(B48 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (39, 37.2230083333333, 126.954213333333, '비상벨', 2);</v>
-      </c>
-      <c r="J48" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A48,", '",Document[[#This Row],[description.2.1]],"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (39, 'https://file.ramblr.com/photo/1024x768/20240813/66bb50b426046.jpg');</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
-        <v>40</v>
-      </c>
-      <c r="B49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C50" t="s">
         <v>94</v>
       </c>
-      <c r="E49">
-        <v>126.96958291999999</v>
-      </c>
-      <c r="F49">
-        <v>37.21494852</v>
-      </c>
-      <c r="H49" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A49,", ",F49,", ",E49,", '",C49,"', ",,IF(B49 = "방범cctv",1,IF(B49 = "비상벨",2,IF(B49 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (40, 37.21494852, 126.96958292, '한신더휴, 임광3차, 휴번밀 사이 삼거리의 CCTV', 1);</v>
-      </c>
-      <c r="J49" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A49,", '",D49,"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (40, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e6f656b0f.jpg');</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>95</v>
       </c>
       <c r="E50">
-        <v>126.96958291999999</v>
+        <v>126.97082336</v>
       </c>
       <c r="F50">
-        <v>37.21494852</v>
+        <v>37.216592890000001</v>
+      </c>
+      <c r="H50" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A50,", ",F50,", ",E50,", '",C50,"', ",,IF(B50 = "방범cctv",1,IF(B50 = "비상벨",2,IF(B50 = "아동안전지킴이집/지구대",3,4))),");")</f>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (42, 37.21659289, 126.97082336, '화성서부경찰서 봉담지구대', 3);</v>
       </c>
       <c r="J50" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A49,", '",D50,"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (40, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e6f8cd3cd.jpg');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (42, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e6fd61e0b.jpg');</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
-        <v>41</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>96</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51">
+        <v>126.97082336</v>
+      </c>
+      <c r="F51">
+        <v>37.216592890000001</v>
+      </c>
+      <c r="J51" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A50,", '",D51,"');")</f>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (42, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e6ff9a2ca.jpg');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
         <v>97</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>98</v>
       </c>
-      <c r="E51">
-        <v>126.97579596</v>
-      </c>
-      <c r="F51">
-        <v>37.218428869999997</v>
-      </c>
-      <c r="H51" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A51,", ",F51,", ",E51,", '",C51,"', ",,IF(B51 = "방범cctv",1,IF(B51 = "비상벨",2,IF(B51 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (41, 37.21842887, 126.97579596, '온누리교회', 3);</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" ref="J50:J88" si="0">_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A51,", '",D51,"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (41, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e6fa67119.jpg');</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D52" t="s">
+      <c r="E52">
+        <v>126.96875734</v>
+      </c>
+      <c r="F52">
+        <v>37.215393910000003</v>
+      </c>
+      <c r="H52" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A52,", ",F52,", ",E52,", '",C52,"', ",,IF(B52 = "방범cctv",1,IF(B52 = "비상벨",2,IF(B52 = "아동안전지킴이집/지구대",3,4))),");")</f>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (43, 37.21539391, 126.96875734, '한신더휴, 효행초 사이 cctv', 1);</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (43, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e706bb535.jpg');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
         <v>99</v>
       </c>
-      <c r="E52">
-        <v>126.97579596</v>
-      </c>
-      <c r="F52">
-        <v>37.218428869999997</v>
-      </c>
-      <c r="J52" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A51,", '",D52,"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (41, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e6fbdd736.jpg');</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
-        <v>42</v>
-      </c>
-      <c r="B53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>100</v>
       </c>
-      <c r="D53" t="s">
-        <v>101</v>
-      </c>
       <c r="E53">
-        <v>126.97082336</v>
+        <v>126.96669383</v>
       </c>
       <c r="F53">
-        <v>37.216592890000001</v>
+        <v>37.219102059999997</v>
       </c>
       <c r="H53" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A53,", ",F53,", ",E53,", '",C53,"', ",,IF(B53 = "방범cctv",1,IF(B53 = "비상벨",2,IF(B53 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (42, 37.21659289, 126.97082336, '화성서부경찰서 봉담지구대', 3);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (44, 37.21910206, 126.96669383, '와우중학교 앞 cctv', 1);</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (42, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e6fd61e0b.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (44, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e70831257.jpg');</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D54" t="s">
-        <v>102</v>
+      <c r="D54" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="E54">
-        <v>126.97082336</v>
+        <v>126.96669383</v>
       </c>
       <c r="F54">
-        <v>37.216592890000001</v>
+        <v>37.219102059999997</v>
       </c>
       <c r="J54" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A53,", '",D54,"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (42, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e6ff9a2ca.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (44, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e70d30ab6.jpg');</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" t="s">
         <v>103</v>
       </c>
-      <c r="D55" t="s">
-        <v>104</v>
-      </c>
       <c r="E55">
-        <v>126.96875734</v>
+        <v>126.9649388</v>
       </c>
       <c r="F55">
-        <v>37.215393910000003</v>
+        <v>37.218893059999999</v>
       </c>
       <c r="H55" t="str">
         <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A55,", ",F55,", ",E55,", '",C55,"', ",,IF(B55 = "방범cctv",1,IF(B55 = "비상벨",2,IF(B55 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (43, 37.21539391, 126.96875734, '한신더휴, 효행초 사이 cctv', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (45, 37.21889306, 126.9649388, '와우중 앞 cctv', 1);</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (43, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e706bb535.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (45, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e7112cf31.jpg');</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>44</v>
-      </c>
-      <c r="B56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56">
+        <v>126.96488546</v>
+      </c>
+      <c r="F56">
+        <v>37.218975299999997</v>
+      </c>
+      <c r="J56" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A55,", '",D56,"');")</f>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (45, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e714e7750.jpg');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
         <v>105</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>106</v>
       </c>
-      <c r="E56">
-        <v>126.96669383</v>
-      </c>
-      <c r="F56">
-        <v>37.219102059999997</v>
-      </c>
-      <c r="H56" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A56,", ",F56,", ",E56,", '",C56,"', ",,IF(B56 = "방범cctv",1,IF(B56 = "비상벨",2,IF(B56 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (44, 37.21910206, 126.96669383, '와우중학교 앞 cctv', 1);</v>
-      </c>
-      <c r="J56" t="str">
+      <c r="E57">
+        <v>126.97238199</v>
+      </c>
+      <c r="F57">
+        <v>37.219370529999999</v>
+      </c>
+      <c r="H57" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A57,", ",F57,", ",E57,", '",C57,"', ",,IF(B57 = "방범cctv",1,IF(B57 = "비상벨",2,IF(B57 = "아동안전지킴이집/지구대",3,4))),");")</f>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (46, 37.21937053, 126.97238199, '와우초등학교 앞', 1);</v>
+      </c>
+      <c r="J57" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (44, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e70831257.jpg');</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D57" s="6" t="s">
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (46, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e71682e5b.jpg');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
         <v>107</v>
       </c>
-      <c r="E57">
-        <v>126.96669383</v>
-      </c>
-      <c r="F57">
-        <v>37.219102059999997</v>
-      </c>
-      <c r="J57" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A56,", '",D57,"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (44, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e70d30ab6.jpg');</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>45</v>
-      </c>
-      <c r="B58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="E58">
+        <v>126.97230750999999</v>
+      </c>
+      <c r="F58">
+        <v>37.219488040000002</v>
+      </c>
+      <c r="J58" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A57,", '",D58,"');")</f>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (46, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e71cbb6e9.jpg');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>47</v>
+      </c>
+      <c r="B59" t="s">
         <v>108</v>
       </c>
-      <c r="D58" t="s">
+      <c r="C59" t="s">
         <v>109</v>
       </c>
-      <c r="E58">
-        <v>126.9649388</v>
-      </c>
-      <c r="F58">
-        <v>37.218893059999999</v>
-      </c>
-      <c r="H58" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A58,", ",F58,", ",E58,", '",C58,"', ",,IF(B58 = "방범cctv",1,IF(B58 = "비상벨",2,IF(B58 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (45, 37.21889306, 126.9649388, '와우중 앞 cctv', 1);</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (45, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e7112cf31.jpg');</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>110</v>
       </c>
       <c r="E59">
-        <v>126.96488546</v>
+        <v>126.962498</v>
       </c>
       <c r="F59">
-        <v>37.218975299999997</v>
+        <v>37.214835000000001</v>
+      </c>
+      <c r="H59" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A59,", ",F59,", ",E59,", '",C59,"', ",,IF(B59 = "방범cctv",1,IF(B59 = "비상벨",2,IF(B59 = "아동안전지킴이집/지구대",3,4))),");")</f>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (47, 37.214835, 126.962498, '동화마을 5단지, 동화새터길 사이 cctv', 1);</v>
       </c>
       <c r="J59" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A58,", '",D59,"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (45, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e714e7750.jpg');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (47, 'https://file.ramblr.com/photo/1024x768/20240816/66bf00b87f9c8.jpg');</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
         <v>111</v>
@@ -2936,41 +2947,54 @@
         <v>112</v>
       </c>
       <c r="E60">
-        <v>126.97238199</v>
+        <v>126.96695099999999</v>
       </c>
       <c r="F60">
-        <v>37.219370529999999</v>
+        <v>37.216296999999997</v>
       </c>
       <c r="H60" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A60,", ",F60,", ",E60,", '",C60,"', ",,IF(B60 = "방범cctv",1,IF(B60 = "비상벨",2,IF(B60 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (46, 37.21937053, 126.97238199, '와우초등학교 앞', 1);</v>
+        <f t="shared" ref="H60:H87" si="1">_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A60,", ",F60,", ",E60,", '",C60,"', ",,IF(B60 = "방범cctv",1,IF(B60 = "비상벨",2,IF(B60 = "아동안전지킴이집/지구대",3,4))),");")</f>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (48, 37.216297, 126.966951, '한신아파트, 효행초 부근 CCTV (동화역말길)', 1);</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (46, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e71682e5b.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (48, 'https://file.ramblr.com/photo/1024x768/20240816/66bf00bd155e2.jpg');</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>49</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>113</v>
+      </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E61">
-        <v>126.97230750999999</v>
+        <v>126.967134</v>
       </c>
       <c r="F61">
-        <v>37.219488040000002</v>
+        <v>37.218569000000002</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (49, 37.218569, 126.967134, '와우고 부근 cctv', 1);</v>
       </c>
       <c r="J61" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A60,", '",D61,"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (46, 'https://file.ramblr.com/photo/1024x768/20240812/66b9e71cbb6e9.jpg');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (49, 'https://file.ramblr.com/photo/1024x768/20240816/66bf00c12d9f8.jpg');</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
         <v>115</v>
@@ -2979,159 +3003,156 @@
         <v>116</v>
       </c>
       <c r="E62">
-        <v>126.962498</v>
+        <v>126.960584</v>
       </c>
       <c r="F62">
-        <v>37.214835000000001</v>
+        <v>37.221980000000002</v>
       </c>
       <c r="H62" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A62,", ",F62,", ",E62,", '",C62,"', ",,IF(B62 = "방범cctv",1,IF(B62 = "비상벨",2,IF(B62 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (47, 37.214835, 126.962498, '동화마을 5단지, 동화새터길 사이 cctv', 1);</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (50, 37.22198, 126.960584, '새말안길, 봉담동탄고속도로 부근', 1);</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (47, 'https://file.ramblr.com/photo/1024x768/20240816/66bf00b87f9c8.jpg');</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>123</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (50, 'https://file.ramblr.com/photo/1024x768/20240816/66bf00d626fa8.jpg');</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D63" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E63">
-        <v>126.96695099999999</v>
+        <v>126.95342000000001</v>
       </c>
       <c r="F63">
-        <v>37.216296999999997</v>
+        <v>37.223049999999994</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" ref="H63:H88" si="1">_xlfn.CONCAT("INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (",A63,", ",F63,", ",E63,", '",C63,"', ",,IF(B63 = "방범cctv",1,IF(B63 = "비상벨",2,IF(B63 = "아동안전지킴이집/지구대",3,4))),");")</f>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (48, 37.216297, 126.966951, '한신아파트, 효행초 부근 CCTV (동화역말길)', 1);</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (51, 37.22305, 126.95342, '동화리 여성친화 안심거리 내 방범CCTV', 1);</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (48, 'https://file.ramblr.com/photo/1024x768/20240816/66bf00bd155e2.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (51, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1a67d8fdc.jpg');</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>49</v>
-      </c>
-      <c r="B64" t="s">
-        <v>114</v>
-      </c>
-      <c r="C64" t="s">
-        <v>119</v>
-      </c>
       <c r="D64" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E64">
-        <v>126.967134</v>
+        <v>126.95342000000001</v>
       </c>
       <c r="F64">
-        <v>37.218569000000002</v>
-      </c>
-      <c r="H64" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (49, 37.218569, 126.967134, '와우고 부근 cctv', 1);</v>
+        <v>37.223049999999994</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (49, 'https://file.ramblr.com/photo/1024x768/20240816/66bf00c12d9f8.jpg');</v>
+        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A63,", '",D64,"');")</f>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (51, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1a697b5a9.jpg');</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C65" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D65" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E65">
-        <v>126.960584</v>
+        <v>126.95594000000001</v>
       </c>
       <c r="F65">
-        <v>37.221980000000002</v>
+        <v>37.218266666666665</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (50, 37.22198, 126.960584, '새말안길, 봉담동탄고속도로 부근', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (52, 37.2182666666667, 126.95594, '피아노숲공원 내 방범CCTV', 1);</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (50, 'https://file.ramblr.com/photo/1024x768/20240816/66bf00d626fa8.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (52, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1a6b1e53a.jpg');</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="s">
         <v>126</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>127</v>
       </c>
-      <c r="D66" t="s">
-        <v>128</v>
-      </c>
       <c r="E66">
-        <v>126.95342000000001</v>
+        <v>126.95547999999999</v>
       </c>
       <c r="F66">
-        <v>37.223049999999994</v>
+        <v>37.218170000000001</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (51, 37.22305, 126.95342, '동화리 여성친화 안심거리 내 방범CCTV', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (53, 37.21817, 126.95548, '피아노숲공원 부근  CCTV', 1);</v>
       </c>
       <c r="J66" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (51, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1a67d8fdc.jpg');</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>145</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (53, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1a6d17d66.jpg');</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" t="s">
+        <v>128</v>
+      </c>
       <c r="D67" t="s">
         <v>129</v>
       </c>
       <c r="E67">
-        <v>126.95342000000001</v>
+        <v>126.96255166666667</v>
       </c>
       <c r="F67">
-        <v>37.223049999999994</v>
+        <v>37.218539999999997</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (54, 37.21854, 126.962551666667, '물소리공원 안쪽, 봉담동탄고속도로 부근 cctv', 1);</v>
       </c>
       <c r="J67" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A66,", '",D67,"');")</f>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (51, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1a697b5a9.jpg');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (54, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1a85ac3d8.jpg');</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C68" t="s">
         <v>130</v>
@@ -3140,54 +3161,54 @@
         <v>131</v>
       </c>
       <c r="E68">
-        <v>126.95594000000001</v>
+        <v>126.96010166666669</v>
       </c>
       <c r="F68">
-        <v>37.218266666666665</v>
+        <v>37.219481666666667</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (52, 37.2182666666667, 126.95594, '피아노숲공원 내 방범CCTV', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (55, 37.2194816666667, 126.960101666667, '새말안길 17, 개인방범 CCTV', 1);</v>
       </c>
       <c r="J68" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (52, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1a6b1e53a.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (55, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1a8d64f7b.jpg');</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C69" t="s">
         <v>132</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="8" t="s">
         <v>133</v>
       </c>
       <c r="E69">
-        <v>126.95547999999999</v>
+        <v>126.95878833333333</v>
       </c>
       <c r="F69">
-        <v>37.218170000000001</v>
+        <v>37.215741666666666</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (53, 37.21817, 126.95548, '피아노숲공원 부근  CCTV', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (56, 37.2157416666667, 126.958788333333, '달그림자공원 내 방범CCTV', 1);</v>
       </c>
       <c r="J69" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (53, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1a6d17d66.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (56, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1a93b23b5.jpg');</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
         <v>134</v>
@@ -3196,138 +3217,141 @@
         <v>135</v>
       </c>
       <c r="E70">
-        <v>126.96255166666667</v>
+        <v>126.95412166666668</v>
       </c>
       <c r="F70">
-        <v>37.218539999999997</v>
+        <v>37.218575000000001</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (54, 37.21854, 126.962551666667, '물소리공원 안쪽, 봉담동탄고속도로 부근 cctv', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (57, 37.218575, 126.954121666667, '상봉초 앞, 동문아파트 뒤쪽길 부근 CCTV', 1);</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (54, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1a85ac3d8.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (57, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1aaeed9e2.jpg');</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" t="s">
         <v>136</v>
       </c>
+      <c r="C71" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="D71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E71">
-        <v>126.96010166666669</v>
+        <v>126.95903166666668</v>
       </c>
       <c r="F71">
-        <v>37.219481666666667</v>
+        <v>37.216628333333333</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (55, 37.2194816666667, 126.960101666667, '새말안길 17, 개인방범 CCTV', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (58, 37.2166283333333, 126.959031666667, '경기 화성시 봉담읍 동화길 93-8 쌍용프라자 501호, 진스블랙벨트태권도', 3);</v>
       </c>
       <c r="J71" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (55, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1a8d64f7b.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (58, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1ac8c1668.jpg');</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
+      </c>
+      <c r="D72" t="s">
+        <v>143</v>
       </c>
       <c r="E72">
-        <v>126.95878833333333</v>
+        <v>126.95293333333332</v>
       </c>
       <c r="F72">
-        <v>37.215741666666666</v>
+        <v>37.217696666666669</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (56, 37.2157416666667, 126.958788333333, '달그림자공원 내 방범CCTV', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (59, 37.2176966666667, 126.952933333333, '봉담고(굿모닝힐 가는길 있는곳)의 비상벨', 2);</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (56, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1a93b23b5.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (59, 'https://file.ramblr.com/photo/1024x768/20241106/672b114cdec82.jpg');</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E73">
-        <v>126.95412166666668</v>
+        <v>126.95298666666667</v>
       </c>
       <c r="F73">
-        <v>37.218575000000001</v>
+        <v>37.217610000000001</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (57, 37.218575, 126.954121666667, '상봉초 앞, 동문아파트 뒤쪽길 부근 CCTV', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (60, 37.21761, 126.952986666667, '봉담고(굿모닝힐 가는길 있는곳)의 cctv', 1);</v>
       </c>
       <c r="J73" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (57, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1aaeed9e2.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (60, 'https://file.ramblr.com/photo/1024x768/20241106/672b114eed7f2.jpg');</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>143</v>
+        <v>120</v>
+      </c>
+      <c r="C74" t="s">
+        <v>146</v>
       </c>
       <c r="D74" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E74">
-        <v>126.95903166666668</v>
+        <v>126.95583499999999</v>
       </c>
       <c r="F74">
-        <v>37.216628333333333</v>
+        <v>37.217994999999995</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (58, 37.2166283333333, 126.959031666667, '경기 화성시 봉담읍 동화길 93-8 쌍용프라자 501호, 진스블랙벨트태권도', 3);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (61, 37.217995, 126.955835, '상봉초, 동일하이빌 사이에 있는 cctv', 1);</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (58, 'https://file.ramblr.com/photo/1024x768/20240812/66ba1ac8c1668.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (61, 'https://file.ramblr.com/photo/1024x768/20241106/672b11510826b.jpg');</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C75" t="s">
         <v>148</v>
@@ -3336,29 +3360,26 @@
         <v>149</v>
       </c>
       <c r="E75">
-        <v>126.95293333333332</v>
+        <v>126.95943333333335</v>
       </c>
       <c r="F75">
-        <v>37.217696666666669</v>
+        <v>37.221131666666665</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (59, 37.2176966666667, 126.952933333333, '봉담고(굿모닝힐 가는길 있는곳)의 비상벨', 2);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (62, 37.2211316666667, 126.959433333333, '신동아파밀리에 부근 cctv', 1);</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (59, 'https://file.ramblr.com/photo/1024x768/20241106/672b114cdec82.jpg');</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>146</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (62, 'https://file.ramblr.com/photo/1024x768/20241106/672b1156630b2.jpg');</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B76" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C76" t="s">
         <v>150</v>
@@ -3367,26 +3388,26 @@
         <v>151</v>
       </c>
       <c r="E76">
-        <v>126.95298666666667</v>
+        <v>126.95973499999999</v>
       </c>
       <c r="F76">
-        <v>37.217610000000001</v>
+        <v>37.22128</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (60, 37.21761, 126.952986666667, '봉담고(굿모닝힐 가는길 있는곳)의 cctv', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (63, 37.22128, 126.959735, '신동아파밀리에 부근 방범 cctv', 1);</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (60, 'https://file.ramblr.com/photo/1024x768/20241106/672b114eed7f2.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (63, 'https://file.ramblr.com/photo/1024x768/20241106/672b1158f32e1.jpg');</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B77" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
         <v>152</v>
@@ -3395,26 +3416,26 @@
         <v>153</v>
       </c>
       <c r="E77">
-        <v>126.95583499999999</v>
+        <v>126.95897666666666</v>
       </c>
       <c r="F77">
-        <v>37.217994999999995</v>
+        <v>37.222491666666663</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (61, 37.217995, 126.955835, '상봉초, 동일하이빌 사이에 있는 cctv', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (64, 37.2224916666667, 126.958976666667, '신동아 파밀리에 정문 앞 CCTV', 1);</v>
       </c>
       <c r="J77" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (61, 'https://file.ramblr.com/photo/1024x768/20241106/672b11510826b.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (64, 'https://file.ramblr.com/photo/1024x768/20241106/672b115a6a482.jpg');</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C78" t="s">
         <v>154</v>
@@ -3423,26 +3444,26 @@
         <v>155</v>
       </c>
       <c r="E78">
-        <v>126.95943333333335</v>
+        <v>126.957185</v>
       </c>
       <c r="F78">
-        <v>37.221131666666665</v>
+        <v>37.223010000000002</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (62, 37.2211316666667, 126.959433333333, '신동아파밀리에 부근 cctv', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (65, 37.22301, 126.957185, '신동아 파밀리에 북쪽 cctv', 1);</v>
       </c>
       <c r="J78" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (62, 'https://file.ramblr.com/photo/1024x768/20241106/672b1156630b2.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (65, 'https://file.ramblr.com/photo/1024x768/20241106/672b115d68bef.jpg');</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C79" t="s">
         <v>156</v>
@@ -3451,26 +3472,26 @@
         <v>157</v>
       </c>
       <c r="E79">
-        <v>126.95973499999999</v>
+        <v>126.95430166666665</v>
       </c>
       <c r="F79">
-        <v>37.22128</v>
+        <v>37.223068333333337</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (63, 37.22128, 126.959735, '신동아파밀리에 부근 방범 cctv', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (66, 37.2230683333333, 126.954301666667, '동화리 여성친화 안심거리 cctv', 1);</v>
       </c>
       <c r="J79" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (63, 'https://file.ramblr.com/photo/1024x768/20241106/672b1158f32e1.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (66, 'https://file.ramblr.com/photo/1024x768/20241106/672b115ef2207.jpg');</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C80" t="s">
         <v>158</v>
@@ -3479,26 +3500,26 @@
         <v>159</v>
       </c>
       <c r="E80">
-        <v>126.95897666666666</v>
+        <v>126.95996833333332</v>
       </c>
       <c r="F80">
-        <v>37.222491666666663</v>
+        <v>37.21302166666667</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (64, 37.2224916666667, 126.958976666667, '신동아 파밀리에 정문 앞 CCTV', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (67, 37.2130216666667, 126.959968333333, '학촌유치원, 동화마을 6단지 사이, 웃음길에 있는 방범cctv', 1);</v>
       </c>
       <c r="J80" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (64, 'https://file.ramblr.com/photo/1024x768/20241106/672b115a6a482.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (67, 'https://file.ramblr.com/photo/1024x768/20241106/672b1160736c2.jpg');</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C81" t="s">
         <v>160</v>
@@ -3507,26 +3528,26 @@
         <v>161</v>
       </c>
       <c r="E81">
-        <v>126.957185</v>
+        <v>126.95769999999999</v>
       </c>
       <c r="F81">
-        <v>37.223010000000002</v>
+        <v>37.212601666666664</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (65, 37.22301, 126.957185, '신동아 파밀리에 북쪽 cctv', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (68, 37.2126016666667, 126.9577, '웃음길에 있는 방범CCTV', 1);</v>
       </c>
       <c r="J81" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (65, 'https://file.ramblr.com/photo/1024x768/20241106/672b115d68bef.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (68, 'https://file.ramblr.com/photo/1024x768/20241106/672b116211018.jpg');</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C82" t="s">
         <v>162</v>
@@ -3535,26 +3556,26 @@
         <v>163</v>
       </c>
       <c r="E82">
-        <v>126.95430166666665</v>
+        <v>126.95232166666668</v>
       </c>
       <c r="F82">
-        <v>37.223068333333337</v>
+        <v>37.216303333333336</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (66, 37.2230683333333, 126.954301666667, '동화리 여성친화 안심거리 cctv', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (69, 37.2163033333333, 126.952321666667, '봉담중학교 부근 방범cctv', 1);</v>
       </c>
       <c r="J82" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (66, 'https://file.ramblr.com/photo/1024x768/20241106/672b115ef2207.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (69, 'https://file.ramblr.com/photo/1024x768/20241106/672b1164543f9.jpg');</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C83" t="s">
         <v>164</v>
@@ -3563,26 +3584,26 @@
         <v>165</v>
       </c>
       <c r="E83">
-        <v>126.95996833333332</v>
+        <v>126.95124833333333</v>
       </c>
       <c r="F83">
-        <v>37.21302166666667</v>
+        <v>37.216911666666668</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (67, 37.2130216666667, 126.959968333333, '학촌유치원, 동화마을 6단지 사이, 웃음길에 있는 방범cctv', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (70, 37.2169116666667, 126.951248333333, '봉담중학교 사거리에 있는 방범 cctv', 1);</v>
       </c>
       <c r="J83" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (67, 'https://file.ramblr.com/photo/1024x768/20241106/672b1160736c2.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (70, 'https://file.ramblr.com/photo/1024x768/20241106/672b1165e9aab.jpg');</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B84" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C84" t="s">
         <v>166</v>
@@ -3591,26 +3612,26 @@
         <v>167</v>
       </c>
       <c r="E84">
-        <v>126.95769999999999</v>
+        <v>126.95123833333334</v>
       </c>
       <c r="F84">
-        <v>37.212601666666664</v>
+        <v>37.217914999999998</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (68, 37.2126016666667, 126.9577, '웃음길에 있는 방범CCTV', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (71, 37.217915, 126.951238333333, '해담은어린이집 사거리 cctv', 1);</v>
       </c>
       <c r="J84" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (68, 'https://file.ramblr.com/photo/1024x768/20241106/672b116211018.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (71, 'https://file.ramblr.com/photo/1024x768/20241106/672b116774daf.jpg');</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B85" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
         <v>168</v>
@@ -3619,102 +3640,61 @@
         <v>169</v>
       </c>
       <c r="E85">
-        <v>126.95232166666668</v>
+        <v>126.95152833333334</v>
       </c>
       <c r="F85">
-        <v>37.216303333333336</v>
+        <v>37.218564999999998</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (69, 37.2163033333333, 126.952321666667, '봉담중학교 부근 방범cctv', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (72, 37.218565, 126.951528333333, '동문굿모닝힐 서쪽, 봉담호수공원과 접해있는 도로의 방범cctv', 1);</v>
       </c>
       <c r="J85" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (69, 'https://file.ramblr.com/photo/1024x768/20241106/672b1164543f9.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (72, 'https://file.ramblr.com/photo/1024x768/20241106/672b11691665c.jpg');</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>70</v>
-      </c>
-      <c r="B86" t="s">
-        <v>126</v>
-      </c>
-      <c r="C86" t="s">
-        <v>170</v>
-      </c>
-      <c r="D86" t="s">
-        <v>171</v>
-      </c>
-      <c r="E86">
-        <v>126.95124833333333</v>
-      </c>
-      <c r="F86">
-        <v>37.216911666666668</v>
+        <v>73</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E86" s="12">
+        <v>126.949898669723</v>
+      </c>
+      <c r="F86" s="12">
+        <v>37.219523193237599</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (70, 37.2169116666667, 126.951248333333, '봉담중학교 사거리에 있는 방범 cctv', 1);</v>
+        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (73, 37.2195231932376, 126.949898669723, '봉담읍행정복지센터 봉담문화의집 앞에 있는 안심무인택배함', 4);</v>
       </c>
       <c r="J86" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (70, 'https://file.ramblr.com/photo/1024x768/20241106/672b1165e9aab.jpg');</v>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (73, 'https://github.com/bongdam-safety/documents/blob/main/%EA%B8%B0%ED%83%80%EC%9E%90%EB%A3%8C/%EC%9D%8D%EC%82%AC%EB%AC%B4%EC%86%8C%20%EB%AC%B4%EC%9D%B8%ED%83%9D%EB%B0%B0%ED%95%A8%20%EC%82%AC%EC%A7%84/20241114_133923.jpg?raw=true');</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>71</v>
-      </c>
-      <c r="B87" t="s">
-        <v>126</v>
-      </c>
-      <c r="C87" t="s">
-        <v>172</v>
-      </c>
-      <c r="D87" t="s">
-        <v>173</v>
-      </c>
-      <c r="E87">
-        <v>126.95123833333334</v>
-      </c>
-      <c r="F87">
-        <v>37.217914999999998</v>
-      </c>
-      <c r="H87" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (71, 37.217915, 126.951238333333, '해담은어린이집 사거리 cctv', 1);</v>
+      <c r="D87" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" s="12">
+        <v>126.949898669723</v>
+      </c>
+      <c r="F87" s="12">
+        <v>37.219523193237599</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (71, 'https://file.ramblr.com/photo/1024x768/20241106/672b116774daf.jpg');</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>72</v>
-      </c>
-      <c r="B88" t="s">
-        <v>126</v>
-      </c>
-      <c r="C88" t="s">
-        <v>174</v>
-      </c>
-      <c r="D88" t="s">
-        <v>175</v>
-      </c>
-      <c r="E88">
-        <v>126.95152833333334</v>
-      </c>
-      <c r="F88">
-        <v>37.218564999999998</v>
-      </c>
-      <c r="H88" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO facility (id, latitude, longitude, content, facility_category_id) VALUES (72, 37.218565, 126.951528333333, '동문굿모닝힐 서쪽, 봉담호수공원과 접해있는 도로의 방범cctv', 1);</v>
-      </c>
-      <c r="J88" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (72, 'https://file.ramblr.com/photo/1024x768/20241106/672b11691665c.jpg');</v>
+        <f>_xlfn.CONCAT("INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (",A86,", '",D87,"');")</f>
+        <v>INSERT INTO facility_image_urls (facility_id, image_urls) VALUES (73, 'https://github.com/bongdam-safety/documents/blob/main/%EA%B8%B0%ED%83%80%EC%9E%90%EB%A3%8C/%EC%9D%8D%EC%82%AC%EB%AC%B4%EC%86%8C%20%EB%AC%B4%EC%9D%B8%ED%83%9D%EB%B0%B0%ED%95%A8%20%EC%82%AC%EC%A7%84/20241114_133940.jpg?raw=true');</v>
       </c>
     </row>
   </sheetData>
@@ -3733,43 +3713,41 @@
     <hyperlink ref="D14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="D15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="D16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D42" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D44" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D45" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D23" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D11" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D57" r:id="rId40" xr:uid="{6DAB8B44-D615-428E-8009-9E3E5EEB0C02}"/>
-    <hyperlink ref="D72" r:id="rId41" xr:uid="{1BCCA058-2873-42FA-AE7B-F81AD5351164}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D41" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D40" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D39" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D40" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D42" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D22" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D11" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D54" r:id="rId37" xr:uid="{6DAB8B44-D615-428E-8009-9E3E5EEB0C02}"/>
+    <hyperlink ref="D69" r:id="rId38" xr:uid="{1BCCA058-2873-42FA-AE7B-F81AD5351164}"/>
+    <hyperlink ref="D41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D39" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D38" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D37" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D86" r:id="rId43" xr:uid="{5BC2C158-5202-4EFA-977B-8ADEE64AA124}"/>
   </hyperlinks>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId44"/>
   <tableParts count="1">
-    <tablePart r:id="rId47"/>
+    <tablePart r:id="rId45"/>
   </tableParts>
 </worksheet>
 </file>
